--- a/data/in/re.xlsx
+++ b/data/in/re.xlsx
@@ -440,36 +440,36 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>7511</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7511</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
